--- a/PFonseca.xlsx
+++ b/PFonseca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78583DB3-F675-42F4-B500-1D9A6091EA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FE8D2B-E0E1-4697-82D5-D2B2148C1847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B3B766BF-C07D-4BB9-AA48-42E662AEBB92}"/>
   </bookViews>
@@ -86,28 +86,16 @@
     <t>Pedro Fonseca</t>
   </si>
   <si>
-    <t>A VENCER</t>
-  </si>
-  <si>
     <t>FA</t>
   </si>
   <si>
     <t>2025A</t>
   </si>
   <si>
-    <t>6A30</t>
-  </si>
-  <si>
     <t>61A90</t>
   </si>
   <si>
     <t>31A60</t>
-  </si>
-  <si>
-    <t>Amadeu Vieira &amp; Vieira, Lda.</t>
-  </si>
-  <si>
-    <t>Talho Rosa Coelho, Lda.</t>
   </si>
   <si>
     <t>Gadelho Tavares, Lda.</t>
@@ -120,9 +108,6 @@
   </si>
   <si>
     <t>Antonio Simão Produtos Aliment.,Lda</t>
-  </si>
-  <si>
-    <t>1A5</t>
   </si>
   <si>
     <t>Sousa &amp; Meira, Lda.</t>
@@ -140,6 +125,39 @@
     <t>91A120</t>
   </si>
   <si>
+    <t>Fernando Pires Teixeira Leite</t>
+  </si>
+  <si>
+    <t>Talhos Heroísmo, Lda</t>
+  </si>
+  <si>
+    <t>Avs - Comercio Carnes, Lda.</t>
+  </si>
+  <si>
+    <t>Tempero Sofisticado, Lda</t>
+  </si>
+  <si>
+    <t>Bruno A. Rocha Unip., Lda</t>
+  </si>
+  <si>
+    <t>Amadeu Vieira &amp; Vieira, Lda.</t>
+  </si>
+  <si>
+    <t>1A15</t>
+  </si>
+  <si>
+    <t>A VENCER</t>
+  </si>
+  <si>
+    <t>Talho Rosa Coelho, Lda.</t>
+  </si>
+  <si>
+    <t>Talho Sanfinense, Lda</t>
+  </si>
+  <si>
+    <t>2025P</t>
+  </si>
+  <si>
     <t>3 Silvas, Lda.</t>
   </si>
   <si>
@@ -149,7 +167,22 @@
     <t>Talho Vitor Neto,Unipessoal, Lda</t>
   </si>
   <si>
+    <t>COROD - Costa Rodrigues Intertrading, Lda</t>
+  </si>
+  <si>
     <t>Bolama Supermercados, Lda.</t>
+  </si>
+  <si>
+    <t>CCR</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Transferência</t>
+  </si>
+  <si>
+    <t>David Silva, Lda</t>
   </si>
   <si>
     <t>Gadelho Tavares, Lda</t>
@@ -158,7 +191,10 @@
     <t>Rodrigues &amp; Araújo, Lda</t>
   </si>
   <si>
-    <t>Fernando Pires Teixeira Leite</t>
+    <t>16A30</t>
+  </si>
+  <si>
+    <t>Casa Do Coucieiro Enchidos</t>
   </si>
   <si>
     <t>Lilicarnes-Com.De Carnes, Unip.,Lda</t>
@@ -176,13 +212,13 @@
     <t>Carnes Gadelho, Lda</t>
   </si>
   <si>
-    <t>CCR</t>
+    <t>António Garcês Cunha Unip.,Lda</t>
   </si>
   <si>
-    <t>A</t>
+    <t>RPR</t>
   </si>
   <si>
-    <t>António Garcês Cunha Unip.,Lda</t>
+    <t>Aviparedes Comercio De Carnes,Lda</t>
   </si>
   <si>
     <t>Grama D'Exemplos - Unipessoal,Lda</t>
@@ -191,7 +227,7 @@
     <t>António De Sousa Ferreira 2</t>
   </si>
   <si>
-    <t>Talhos Heroísmo, Lda</t>
+    <t>Maria Teresa Pacheco Morais</t>
   </si>
   <si>
     <t>Gosto Disciplinado - Talhos Lda</t>
@@ -203,7 +239,7 @@
     <t>Carnes Meireles Do Minho, Sa</t>
   </si>
   <si>
-    <t>Transferência</t>
+    <t>Carnes Da Rendeira, Lda</t>
   </si>
   <si>
     <t>César Manuel Leite Saldanha</t>
@@ -212,58 +248,22 @@
     <t>Heróis E Foliões - Unipessoal Lda</t>
   </si>
   <si>
-    <t>Ramos &amp; Prata, Lda</t>
+    <t>Fábio André Silva Unip., Lda</t>
   </si>
   <si>
-    <t>Avs - Comercio Carnes, Lda.</t>
-  </si>
-  <si>
-    <t>Tempero Sofisticado, Lda</t>
-  </si>
-  <si>
-    <t>Bruno A. Rocha Unip., Lda</t>
-  </si>
-  <si>
-    <t>2025P</t>
-  </si>
-  <si>
-    <t>Mundimport - Serviços, Lda.</t>
-  </si>
-  <si>
-    <t>COROD - Costa Rodrigues Intertrading, Lda</t>
-  </si>
-  <si>
-    <t>RPR</t>
-  </si>
-  <si>
-    <t>Aviparedes Comercio De Carnes,Lda</t>
-  </si>
-  <si>
-    <t>António Leal Pereira Unipessoal, Lda</t>
-  </si>
-  <si>
-    <t>Talho Sanfinense, Lda</t>
-  </si>
-  <si>
-    <t>Casa Do Coucieiro Enchidos</t>
-  </si>
-  <si>
-    <t>Maria Teresa Pacheco Morais</t>
-  </si>
-  <si>
-    <t>Carnes Da Rendeira, Lda</t>
-  </si>
-  <si>
-    <t>David Silva, Lda</t>
-  </si>
-  <si>
-    <t>Fábio André Silva Unip., Lda</t>
+    <t>Ramos &amp; Prata, Lda</t>
   </si>
   <si>
     <t>Nucleo Do Sporting Clube De</t>
   </si>
   <si>
     <t>2025B</t>
+  </si>
+  <si>
+    <t>António Leal Pereira Unipessoal, Lda</t>
+  </si>
+  <si>
+    <t>Mundimport - Serviços, Lda.</t>
   </si>
 </sst>
 </file>
@@ -641,7 +641,7 @@
   <dimension ref="A1:M300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M300"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,13 +697,13 @@
         <v>211110385</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>11386</v>
@@ -730,7 +730,7 @@
         <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -738,13 +738,13 @@
         <v>211110385</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>11514</v>
@@ -771,7 +771,7 @@
         <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -779,13 +779,13 @@
         <v>211110385</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>11815</v>
@@ -812,7 +812,7 @@
         <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -820,13 +820,13 @@
         <v>211110385</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>12059</v>
@@ -853,7 +853,7 @@
         <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -861,13 +861,13 @@
         <v>211110385</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>12229</v>
@@ -894,7 +894,7 @@
         <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -902,13 +902,13 @@
         <v>211110385</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>544</v>
@@ -935,7 +935,7 @@
         <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -943,13 +943,13 @@
         <v>211110385</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>547</v>
@@ -976,7 +976,7 @@
         <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -984,13 +984,13 @@
         <v>211110385</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>12537</v>
@@ -1017,7 +1017,7 @@
         <v>15</v>
       </c>
       <c r="M9" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1025,13 +1025,13 @@
         <v>211110385</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>12787</v>
@@ -1058,7 +1058,7 @@
         <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1066,13 +1066,13 @@
         <v>211110385</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>13016</v>
@@ -1099,7 +1099,7 @@
         <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1107,13 +1107,13 @@
         <v>211110385</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>13324</v>
@@ -1140,7 +1140,7 @@
         <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1148,13 +1148,13 @@
         <v>211110578</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>12516</v>
@@ -1181,7 +1181,7 @@
         <v>15</v>
       </c>
       <c r="M13" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1189,13 +1189,13 @@
         <v>211110578</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>12595</v>
@@ -1222,7 +1222,7 @@
         <v>15</v>
       </c>
       <c r="M14" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1230,13 +1230,13 @@
         <v>211110578</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>12721</v>
@@ -1263,7 +1263,7 @@
         <v>15</v>
       </c>
       <c r="M15" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1271,13 +1271,13 @@
         <v>211110578</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>13109</v>
@@ -1304,7 +1304,7 @@
         <v>15</v>
       </c>
       <c r="M16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1312,13 +1312,13 @@
         <v>211110578</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>13132</v>
@@ -1345,7 +1345,7 @@
         <v>15</v>
       </c>
       <c r="M17" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1353,13 +1353,13 @@
         <v>211110578</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>13136</v>
@@ -1386,7 +1386,7 @@
         <v>15</v>
       </c>
       <c r="M18" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1394,13 +1394,13 @@
         <v>211110578</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>13363</v>
@@ -1427,7 +1427,7 @@
         <v>15</v>
       </c>
       <c r="M19" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1435,13 +1435,13 @@
         <v>211110601</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>11862</v>
@@ -1468,7 +1468,7 @@
         <v>15</v>
       </c>
       <c r="M20" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1476,13 +1476,13 @@
         <v>211110601</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>12205</v>
@@ -1509,7 +1509,7 @@
         <v>15</v>
       </c>
       <c r="M21" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1517,13 +1517,13 @@
         <v>211110601</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>12207</v>
@@ -1550,7 +1550,7 @@
         <v>15</v>
       </c>
       <c r="M22" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1558,13 +1558,13 @@
         <v>211110601</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>12820</v>
@@ -1591,7 +1591,7 @@
         <v>15</v>
       </c>
       <c r="M23" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1599,13 +1599,13 @@
         <v>211110601</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>13202</v>
@@ -1632,7 +1632,7 @@
         <v>15</v>
       </c>
       <c r="M24" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1640,13 +1640,13 @@
         <v>211110841</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>8887</v>
@@ -1673,7 +1673,7 @@
         <v>15</v>
       </c>
       <c r="M25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1681,13 +1681,13 @@
         <v>211110841</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>12532</v>
@@ -1714,7 +1714,7 @@
         <v>15</v>
       </c>
       <c r="M26" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1722,13 +1722,13 @@
         <v>211110841</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>12791</v>
@@ -1755,7 +1755,7 @@
         <v>15</v>
       </c>
       <c r="M27" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1763,13 +1763,13 @@
         <v>211110841</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>12937</v>
@@ -1796,7 +1796,7 @@
         <v>15</v>
       </c>
       <c r="M28" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1804,13 +1804,13 @@
         <v>211110841</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>13057</v>
@@ -1837,7 +1837,7 @@
         <v>15</v>
       </c>
       <c r="M29" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1845,13 +1845,13 @@
         <v>211110841</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>13337</v>
@@ -1878,7 +1878,7 @@
         <v>15</v>
       </c>
       <c r="M30" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1886,13 +1886,13 @@
         <v>211110841</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>13415</v>
@@ -1919,7 +1919,7 @@
         <v>15</v>
       </c>
       <c r="M31" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1927,13 +1927,13 @@
         <v>211110860</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>10601</v>
@@ -1960,7 +1960,7 @@
         <v>15</v>
       </c>
       <c r="M32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1968,13 +1968,13 @@
         <v>211110860</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>12546</v>
@@ -2001,7 +2001,7 @@
         <v>15</v>
       </c>
       <c r="M33" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2009,13 +2009,13 @@
         <v>211110860</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>12800</v>
@@ -2042,7 +2042,7 @@
         <v>15</v>
       </c>
       <c r="M34" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2050,13 +2050,13 @@
         <v>211110860</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>13045</v>
@@ -2083,7 +2083,7 @@
         <v>15</v>
       </c>
       <c r="M35" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2091,13 +2091,13 @@
         <v>211110860</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>13082</v>
@@ -2124,7 +2124,7 @@
         <v>15</v>
       </c>
       <c r="M36" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2132,13 +2132,13 @@
         <v>211110860</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>13101</v>
@@ -2165,7 +2165,7 @@
         <v>15</v>
       </c>
       <c r="M37" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2173,13 +2173,13 @@
         <v>211110860</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>13330</v>
@@ -2206,7 +2206,7 @@
         <v>15</v>
       </c>
       <c r="M38" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2214,13 +2214,13 @@
         <v>211110870</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>8886</v>
@@ -2247,7 +2247,7 @@
         <v>15</v>
       </c>
       <c r="M39" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2255,7 +2255,7 @@
         <v>211110883</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -2288,7 +2288,7 @@
         <v>15</v>
       </c>
       <c r="M40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2296,7 +2296,7 @@
         <v>211110883</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -2329,7 +2329,7 @@
         <v>15</v>
       </c>
       <c r="M41" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2337,13 +2337,13 @@
         <v>211110883</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>12895</v>
@@ -2370,7 +2370,7 @@
         <v>15</v>
       </c>
       <c r="M42" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2378,13 +2378,13 @@
         <v>211110883</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>13155</v>
@@ -2411,7 +2411,7 @@
         <v>15</v>
       </c>
       <c r="M43" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2419,13 +2419,13 @@
         <v>211110883</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>13301</v>
@@ -2452,7 +2452,7 @@
         <v>15</v>
       </c>
       <c r="M44" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2460,13 +2460,13 @@
         <v>211110887</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E45">
         <v>5600</v>
@@ -2493,7 +2493,7 @@
         <v>15</v>
       </c>
       <c r="M45" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2501,13 +2501,13 @@
         <v>211110887</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E46">
         <v>5668</v>
@@ -2534,7 +2534,7 @@
         <v>15</v>
       </c>
       <c r="M46" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2542,13 +2542,13 @@
         <v>211110887</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E47">
         <v>6222</v>
@@ -2575,7 +2575,7 @@
         <v>15</v>
       </c>
       <c r="M47" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2583,13 +2583,13 @@
         <v>211110887</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E48">
         <v>6229</v>
@@ -2616,7 +2616,7 @@
         <v>15</v>
       </c>
       <c r="M48" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2624,13 +2624,13 @@
         <v>211110887</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E49">
         <v>6296</v>
@@ -2657,7 +2657,7 @@
         <v>15</v>
       </c>
       <c r="M49" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2665,13 +2665,13 @@
         <v>211110887</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E50">
         <v>6309</v>
@@ -2698,7 +2698,7 @@
         <v>15</v>
       </c>
       <c r="M50" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2706,13 +2706,13 @@
         <v>211110887</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E51">
         <v>7526</v>
@@ -2739,7 +2739,7 @@
         <v>15</v>
       </c>
       <c r="M51" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2747,13 +2747,13 @@
         <v>211110887</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E52">
         <v>7991</v>
@@ -2780,7 +2780,7 @@
         <v>15</v>
       </c>
       <c r="M52" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2788,13 +2788,13 @@
         <v>211110887</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E53">
         <v>8448</v>
@@ -2821,7 +2821,7 @@
         <v>15</v>
       </c>
       <c r="M53" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2829,13 +2829,13 @@
         <v>211110887</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E54">
         <v>8825</v>
@@ -2862,7 +2862,7 @@
         <v>15</v>
       </c>
       <c r="M54" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2870,13 +2870,13 @@
         <v>211110887</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E55">
         <v>9094</v>
@@ -2903,7 +2903,7 @@
         <v>15</v>
       </c>
       <c r="M55" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -2911,13 +2911,13 @@
         <v>211110887</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E56">
         <v>9330</v>
@@ -2944,7 +2944,7 @@
         <v>15</v>
       </c>
       <c r="M56" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -2952,13 +2952,13 @@
         <v>211110887</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E57">
         <v>9402</v>
@@ -2985,7 +2985,7 @@
         <v>15</v>
       </c>
       <c r="M57" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -2993,13 +2993,13 @@
         <v>211110887</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E58">
         <v>9782</v>
@@ -3026,7 +3026,7 @@
         <v>15</v>
       </c>
       <c r="M58" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3034,13 +3034,13 @@
         <v>211110887</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E59">
         <v>10037</v>
@@ -3067,7 +3067,7 @@
         <v>15</v>
       </c>
       <c r="M59" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3075,13 +3075,13 @@
         <v>211110887</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E60">
         <v>231</v>
@@ -3108,7 +3108,7 @@
         <v>15</v>
       </c>
       <c r="M60" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3116,13 +3116,13 @@
         <v>211110887</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E61">
         <v>10224</v>
@@ -3149,7 +3149,7 @@
         <v>15</v>
       </c>
       <c r="M61" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3157,13 +3157,13 @@
         <v>211110887</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E62">
         <v>11166</v>
@@ -3190,7 +3190,7 @@
         <v>15</v>
       </c>
       <c r="M62" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3198,7 +3198,7 @@
         <v>211110887</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
@@ -3231,7 +3231,7 @@
         <v>15</v>
       </c>
       <c r="M63" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3239,13 +3239,13 @@
         <v>211110887</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E64">
         <v>11233</v>
@@ -3272,7 +3272,7 @@
         <v>15</v>
       </c>
       <c r="M64" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3280,13 +3280,13 @@
         <v>211110887</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E65">
         <v>11628</v>
@@ -3313,7 +3313,7 @@
         <v>15</v>
       </c>
       <c r="M65" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3321,13 +3321,13 @@
         <v>211110887</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E66">
         <v>11701</v>
@@ -3354,7 +3354,7 @@
         <v>15</v>
       </c>
       <c r="M66" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3362,13 +3362,13 @@
         <v>211110887</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E67">
         <v>387</v>
@@ -3395,7 +3395,7 @@
         <v>15</v>
       </c>
       <c r="M67" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3403,13 +3403,13 @@
         <v>211110887</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E68">
         <v>755</v>
@@ -3436,7 +3436,7 @@
         <v>15</v>
       </c>
       <c r="M68" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3444,13 +3444,13 @@
         <v>211110887</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E69">
         <v>2317</v>
@@ -3477,7 +3477,7 @@
         <v>15</v>
       </c>
       <c r="M69" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3485,13 +3485,13 @@
         <v>211110887</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E70">
         <v>3703</v>
@@ -3518,7 +3518,7 @@
         <v>15</v>
       </c>
       <c r="M70" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3526,13 +3526,13 @@
         <v>211110887</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E71">
         <v>3768</v>
@@ -3559,7 +3559,7 @@
         <v>15</v>
       </c>
       <c r="M71" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3567,7 +3567,7 @@
         <v>211110887</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
@@ -3600,7 +3600,7 @@
         <v>15</v>
       </c>
       <c r="M72" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3608,7 +3608,7 @@
         <v>211110887</v>
       </c>
       <c r="B73" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
@@ -3641,7 +3641,7 @@
         <v>15</v>
       </c>
       <c r="M73" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3649,13 +3649,13 @@
         <v>211110887</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -3682,7 +3682,7 @@
         <v>15</v>
       </c>
       <c r="M74" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3690,7 +3690,7 @@
         <v>211110887</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
@@ -3723,7 +3723,7 @@
         <v>15</v>
       </c>
       <c r="M75" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3731,13 +3731,13 @@
         <v>211110959</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E76">
         <v>12460</v>
@@ -3764,7 +3764,7 @@
         <v>15</v>
       </c>
       <c r="M76" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3772,13 +3772,13 @@
         <v>211110959</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E77">
         <v>12469</v>
@@ -3805,7 +3805,7 @@
         <v>15</v>
       </c>
       <c r="M77" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3813,13 +3813,13 @@
         <v>211110959</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E78">
         <v>12470</v>
@@ -3846,7 +3846,7 @@
         <v>15</v>
       </c>
       <c r="M78" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -3854,13 +3854,13 @@
         <v>211110959</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E79">
         <v>12536</v>
@@ -3887,7 +3887,7 @@
         <v>15</v>
       </c>
       <c r="M79" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -3895,13 +3895,13 @@
         <v>211110959</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E80">
         <v>12550</v>
@@ -3928,7 +3928,7 @@
         <v>15</v>
       </c>
       <c r="M80" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -3936,13 +3936,13 @@
         <v>211110959</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E81">
         <v>12551</v>
@@ -3969,7 +3969,7 @@
         <v>15</v>
       </c>
       <c r="M81" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -3977,13 +3977,13 @@
         <v>211110959</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E82">
         <v>12552</v>
@@ -4010,7 +4010,7 @@
         <v>15</v>
       </c>
       <c r="M82" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -4018,13 +4018,13 @@
         <v>211110959</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E83">
         <v>12644</v>
@@ -4051,7 +4051,7 @@
         <v>15</v>
       </c>
       <c r="M83" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -4059,13 +4059,13 @@
         <v>211110959</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E84">
         <v>12803</v>
@@ -4092,7 +4092,7 @@
         <v>15</v>
       </c>
       <c r="M84" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4100,13 +4100,13 @@
         <v>211110959</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E85">
         <v>12812</v>
@@ -4133,7 +4133,7 @@
         <v>15</v>
       </c>
       <c r="M85" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4141,13 +4141,13 @@
         <v>211110959</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E86">
         <v>12818</v>
@@ -4174,7 +4174,7 @@
         <v>15</v>
       </c>
       <c r="M86" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4182,13 +4182,13 @@
         <v>211110959</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E87">
         <v>12920</v>
@@ -4215,7 +4215,7 @@
         <v>15</v>
       </c>
       <c r="M87" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4223,13 +4223,13 @@
         <v>211110959</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E88">
         <v>12921</v>
@@ -4256,7 +4256,7 @@
         <v>15</v>
       </c>
       <c r="M88" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4264,13 +4264,13 @@
         <v>211110959</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E89">
         <v>13014</v>
@@ -4297,7 +4297,7 @@
         <v>15</v>
       </c>
       <c r="M89" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4305,13 +4305,13 @@
         <v>211110959</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E90">
         <v>13063</v>
@@ -4338,7 +4338,7 @@
         <v>15</v>
       </c>
       <c r="M90" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4346,13 +4346,13 @@
         <v>211110959</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E91">
         <v>13088</v>
@@ -4379,7 +4379,7 @@
         <v>15</v>
       </c>
       <c r="M91" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4387,13 +4387,13 @@
         <v>211110959</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E92">
         <v>13153</v>
@@ -4420,7 +4420,7 @@
         <v>15</v>
       </c>
       <c r="M92" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4428,13 +4428,13 @@
         <v>211110959</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E93">
         <v>13217</v>
@@ -4461,7 +4461,7 @@
         <v>15</v>
       </c>
       <c r="M93" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4469,13 +4469,13 @@
         <v>211110959</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E94">
         <v>13218</v>
@@ -4502,7 +4502,7 @@
         <v>15</v>
       </c>
       <c r="M94" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4510,13 +4510,13 @@
         <v>211110959</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E95">
         <v>13226</v>
@@ -4543,7 +4543,7 @@
         <v>15</v>
       </c>
       <c r="M95" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4551,13 +4551,13 @@
         <v>211110959</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E96">
         <v>13260</v>
@@ -4584,7 +4584,7 @@
         <v>15</v>
       </c>
       <c r="M96" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4592,13 +4592,13 @@
         <v>211110959</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E97">
         <v>13309</v>
@@ -4625,7 +4625,7 @@
         <v>15</v>
       </c>
       <c r="M97" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4633,13 +4633,13 @@
         <v>211110959</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E98">
         <v>13328</v>
@@ -4666,7 +4666,7 @@
         <v>15</v>
       </c>
       <c r="M98" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4674,13 +4674,13 @@
         <v>211111050</v>
       </c>
       <c r="B99" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E99">
         <v>12834</v>
@@ -4707,7 +4707,7 @@
         <v>15</v>
       </c>
       <c r="M99" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4715,13 +4715,13 @@
         <v>211111050</v>
       </c>
       <c r="B100" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E100">
         <v>12924</v>
@@ -4748,7 +4748,7 @@
         <v>15</v>
       </c>
       <c r="M100" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4756,7 +4756,7 @@
         <v>211111050</v>
       </c>
       <c r="B101" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
@@ -4789,7 +4789,7 @@
         <v>15</v>
       </c>
       <c r="M101" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4797,13 +4797,13 @@
         <v>211111050</v>
       </c>
       <c r="B102" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E102">
         <v>13096</v>
@@ -4830,7 +4830,7 @@
         <v>15</v>
       </c>
       <c r="M102" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -4838,13 +4838,13 @@
         <v>211111050</v>
       </c>
       <c r="B103" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E103">
         <v>13152</v>
@@ -4871,7 +4871,7 @@
         <v>15</v>
       </c>
       <c r="M103" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4879,13 +4879,13 @@
         <v>211111050</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E104">
         <v>13192</v>
@@ -4912,7 +4912,7 @@
         <v>15</v>
       </c>
       <c r="M104" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -4920,13 +4920,13 @@
         <v>211111050</v>
       </c>
       <c r="B105" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E105">
         <v>13420</v>
@@ -4953,7 +4953,7 @@
         <v>15</v>
       </c>
       <c r="M105" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -4961,13 +4961,13 @@
         <v>211111091</v>
       </c>
       <c r="B106" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E106">
         <v>12547</v>
@@ -4994,7 +4994,7 @@
         <v>15</v>
       </c>
       <c r="M106" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5002,13 +5002,13 @@
         <v>211111091</v>
       </c>
       <c r="B107" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E107">
         <v>12802</v>
@@ -5035,7 +5035,7 @@
         <v>15</v>
       </c>
       <c r="M107" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -5043,13 +5043,13 @@
         <v>211111091</v>
       </c>
       <c r="B108" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D108" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E108">
         <v>13053</v>
@@ -5076,7 +5076,7 @@
         <v>15</v>
       </c>
       <c r="M108" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -5084,13 +5084,13 @@
         <v>211111091</v>
       </c>
       <c r="B109" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E109">
         <v>13172</v>
@@ -5117,7 +5117,7 @@
         <v>15</v>
       </c>
       <c r="M109" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -5125,13 +5125,13 @@
         <v>211111091</v>
       </c>
       <c r="B110" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E110">
         <v>13292</v>
@@ -5158,7 +5158,7 @@
         <v>15</v>
       </c>
       <c r="M110" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5166,13 +5166,13 @@
         <v>211111091</v>
       </c>
       <c r="B111" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E111">
         <v>13414</v>
@@ -5199,7 +5199,7 @@
         <v>15</v>
       </c>
       <c r="M111" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5207,13 +5207,13 @@
         <v>211111106</v>
       </c>
       <c r="B112" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E112">
         <v>12526</v>
@@ -5240,7 +5240,7 @@
         <v>15</v>
       </c>
       <c r="M112" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5248,13 +5248,13 @@
         <v>211111305</v>
       </c>
       <c r="B113" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C113" t="s">
         <v>13</v>
       </c>
       <c r="D113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E113">
         <v>559</v>
@@ -5281,7 +5281,7 @@
         <v>15</v>
       </c>
       <c r="M113" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5289,13 +5289,13 @@
         <v>211111305</v>
       </c>
       <c r="B114" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C114" t="s">
         <v>13</v>
       </c>
       <c r="D114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E114">
         <v>561</v>
@@ -5322,7 +5322,7 @@
         <v>15</v>
       </c>
       <c r="M114" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5330,13 +5330,13 @@
         <v>211111305</v>
       </c>
       <c r="B115" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C115" t="s">
         <v>13</v>
       </c>
       <c r="D115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E115">
         <v>562</v>
@@ -5363,7 +5363,7 @@
         <v>15</v>
       </c>
       <c r="M115" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5371,13 +5371,13 @@
         <v>211111305</v>
       </c>
       <c r="B116" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C116" t="s">
         <v>13</v>
       </c>
       <c r="D116" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E116">
         <v>564</v>
@@ -5404,7 +5404,7 @@
         <v>15</v>
       </c>
       <c r="M116" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5412,13 +5412,13 @@
         <v>211111305</v>
       </c>
       <c r="B117" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C117" t="s">
         <v>13</v>
       </c>
       <c r="D117" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E117">
         <v>565</v>
@@ -5445,7 +5445,7 @@
         <v>15</v>
       </c>
       <c r="M117" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5453,13 +5453,13 @@
         <v>211111305</v>
       </c>
       <c r="B118" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C118" t="s">
         <v>13</v>
       </c>
       <c r="D118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E118">
         <v>566</v>
@@ -5486,7 +5486,7 @@
         <v>15</v>
       </c>
       <c r="M118" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5494,7 +5494,7 @@
         <v>211111305</v>
       </c>
       <c r="B119" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C119" t="s">
         <v>13</v>
@@ -5527,7 +5527,7 @@
         <v>15</v>
       </c>
       <c r="M119" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5535,7 +5535,7 @@
         <v>211111305</v>
       </c>
       <c r="B120" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C120" t="s">
         <v>13</v>
@@ -5568,7 +5568,7 @@
         <v>15</v>
       </c>
       <c r="M120" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5576,7 +5576,7 @@
         <v>211111305</v>
       </c>
       <c r="B121" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C121" t="s">
         <v>13</v>
@@ -5609,7 +5609,7 @@
         <v>15</v>
       </c>
       <c r="M121" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5617,7 +5617,7 @@
         <v>211111305</v>
       </c>
       <c r="B122" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C122" t="s">
         <v>13</v>
@@ -5650,7 +5650,7 @@
         <v>15</v>
       </c>
       <c r="M122" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5658,7 +5658,7 @@
         <v>211111305</v>
       </c>
       <c r="B123" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C123" t="s">
         <v>13</v>
@@ -5691,7 +5691,7 @@
         <v>15</v>
       </c>
       <c r="M123" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5699,7 +5699,7 @@
         <v>211111305</v>
       </c>
       <c r="B124" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C124" t="s">
         <v>13</v>
@@ -5732,7 +5732,7 @@
         <v>15</v>
       </c>
       <c r="M124" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5740,7 +5740,7 @@
         <v>211111305</v>
       </c>
       <c r="B125" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C125" t="s">
         <v>13</v>
@@ -5773,7 +5773,7 @@
         <v>15</v>
       </c>
       <c r="M125" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5781,7 +5781,7 @@
         <v>211111305</v>
       </c>
       <c r="B126" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C126" t="s">
         <v>13</v>
@@ -5814,7 +5814,7 @@
         <v>15</v>
       </c>
       <c r="M126" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5822,13 +5822,13 @@
         <v>211111305</v>
       </c>
       <c r="B127" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E127">
         <v>12472</v>
@@ -5855,7 +5855,7 @@
         <v>15</v>
       </c>
       <c r="M127" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -5863,13 +5863,13 @@
         <v>211111305</v>
       </c>
       <c r="B128" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E128">
         <v>12511</v>
@@ -5896,7 +5896,7 @@
         <v>15</v>
       </c>
       <c r="M128" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -5904,13 +5904,13 @@
         <v>211111305</v>
       </c>
       <c r="B129" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D129" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E129">
         <v>12866</v>
@@ -5937,7 +5937,7 @@
         <v>15</v>
       </c>
       <c r="M129" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -5945,13 +5945,13 @@
         <v>211111305</v>
       </c>
       <c r="B130" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E130">
         <v>12692</v>
@@ -5978,7 +5978,7 @@
         <v>15</v>
       </c>
       <c r="M130" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -5986,13 +5986,13 @@
         <v>211111305</v>
       </c>
       <c r="B131" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E131">
         <v>12898</v>
@@ -6019,7 +6019,7 @@
         <v>15</v>
       </c>
       <c r="M131" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6027,13 +6027,13 @@
         <v>211111305</v>
       </c>
       <c r="B132" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E132">
         <v>13002</v>
@@ -6060,7 +6060,7 @@
         <v>15</v>
       </c>
       <c r="M132" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6068,13 +6068,13 @@
         <v>211111305</v>
       </c>
       <c r="B133" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E133">
         <v>13166</v>
@@ -6101,7 +6101,7 @@
         <v>15</v>
       </c>
       <c r="M133" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -6109,13 +6109,13 @@
         <v>211111305</v>
       </c>
       <c r="B134" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E134">
         <v>13167</v>
@@ -6142,7 +6142,7 @@
         <v>15</v>
       </c>
       <c r="M134" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -6150,13 +6150,13 @@
         <v>211111305</v>
       </c>
       <c r="B135" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E135">
         <v>13271</v>
@@ -6183,7 +6183,7 @@
         <v>15</v>
       </c>
       <c r="M135" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -6191,16 +6191,16 @@
         <v>211111305</v>
       </c>
       <c r="B136" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C136" t="s">
+        <v>45</v>
+      </c>
+      <c r="D136" t="s">
         <v>46</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>47</v>
-      </c>
-      <c r="E136" t="s">
-        <v>55</v>
       </c>
       <c r="F136" t="s">
         <v>14</v>
@@ -6224,7 +6224,7 @@
         <v>15</v>
       </c>
       <c r="M136" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6232,13 +6232,13 @@
         <v>211111462</v>
       </c>
       <c r="B137" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C137" t="s">
         <v>13</v>
       </c>
       <c r="D137" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E137">
         <v>577</v>
@@ -6265,7 +6265,7 @@
         <v>15</v>
       </c>
       <c r="M137" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6273,13 +6273,13 @@
         <v>211111462</v>
       </c>
       <c r="B138" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D138" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E138">
         <v>13208</v>
@@ -6306,7 +6306,7 @@
         <v>15</v>
       </c>
       <c r="M138" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6314,13 +6314,13 @@
         <v>211111227</v>
       </c>
       <c r="B139" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E139">
         <v>12531</v>
@@ -6347,7 +6347,7 @@
         <v>15</v>
       </c>
       <c r="M139" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6355,13 +6355,13 @@
         <v>211111227</v>
       </c>
       <c r="B140" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D140" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E140">
         <v>12790</v>
@@ -6388,7 +6388,7 @@
         <v>15</v>
       </c>
       <c r="M140" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6396,13 +6396,13 @@
         <v>211111227</v>
       </c>
       <c r="B141" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D141" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E141">
         <v>13036</v>
@@ -6429,7 +6429,7 @@
         <v>15</v>
       </c>
       <c r="M141" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6437,13 +6437,13 @@
         <v>211111227</v>
       </c>
       <c r="B142" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D142" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E142">
         <v>13124</v>
@@ -6470,7 +6470,7 @@
         <v>15</v>
       </c>
       <c r="M142" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6478,13 +6478,13 @@
         <v>211111227</v>
       </c>
       <c r="B143" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D143" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E143">
         <v>13319</v>
@@ -6511,7 +6511,7 @@
         <v>15</v>
       </c>
       <c r="M143" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6519,13 +6519,13 @@
         <v>211111227</v>
       </c>
       <c r="B144" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D144" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E144">
         <v>13336</v>
@@ -6552,7 +6552,7 @@
         <v>15</v>
       </c>
       <c r="M144" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6560,7 +6560,7 @@
         <v>211111572</v>
       </c>
       <c r="B145" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C145" t="s">
         <v>13</v>
@@ -6593,7 +6593,7 @@
         <v>15</v>
       </c>
       <c r="M145" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6601,13 +6601,13 @@
         <v>211111572</v>
       </c>
       <c r="B146" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D146" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E146">
         <v>12285</v>
@@ -6634,7 +6634,7 @@
         <v>15</v>
       </c>
       <c r="M146" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6642,13 +6642,13 @@
         <v>211111572</v>
       </c>
       <c r="B147" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E147">
         <v>12369</v>
@@ -6675,7 +6675,7 @@
         <v>15</v>
       </c>
       <c r="M147" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6683,13 +6683,13 @@
         <v>211111572</v>
       </c>
       <c r="B148" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D148" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E148">
         <v>12518</v>
@@ -6716,7 +6716,7 @@
         <v>15</v>
       </c>
       <c r="M148" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6724,13 +6724,13 @@
         <v>211111572</v>
       </c>
       <c r="B149" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C149" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D149" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E149">
         <v>12627</v>
@@ -6757,7 +6757,7 @@
         <v>15</v>
       </c>
       <c r="M149" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6765,7 +6765,7 @@
         <v>211111572</v>
       </c>
       <c r="B150" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C150" t="s">
         <v>13</v>
@@ -6798,7 +6798,7 @@
         <v>15</v>
       </c>
       <c r="M150" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6806,7 +6806,7 @@
         <v>211111572</v>
       </c>
       <c r="B151" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C151" t="s">
         <v>13</v>
@@ -6839,7 +6839,7 @@
         <v>15</v>
       </c>
       <c r="M151" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6847,13 +6847,13 @@
         <v>211111572</v>
       </c>
       <c r="B152" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C152" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D152" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E152">
         <v>12720</v>
@@ -6880,7 +6880,7 @@
         <v>15</v>
       </c>
       <c r="M152" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -6888,13 +6888,13 @@
         <v>211111572</v>
       </c>
       <c r="B153" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C153" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D153" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E153">
         <v>12844</v>
@@ -6921,7 +6921,7 @@
         <v>15</v>
       </c>
       <c r="M153" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -6929,13 +6929,13 @@
         <v>211111572</v>
       </c>
       <c r="B154" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C154" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D154" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E154">
         <v>12851</v>
@@ -6962,7 +6962,7 @@
         <v>15</v>
       </c>
       <c r="M154" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -6970,13 +6970,13 @@
         <v>211111572</v>
       </c>
       <c r="B155" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D155" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E155">
         <v>12981</v>
@@ -7003,7 +7003,7 @@
         <v>15</v>
       </c>
       <c r="M155" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7011,13 +7011,13 @@
         <v>211111572</v>
       </c>
       <c r="B156" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C156" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D156" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E156">
         <v>13127</v>
@@ -7044,7 +7044,7 @@
         <v>15</v>
       </c>
       <c r="M156" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -7052,13 +7052,13 @@
         <v>211111572</v>
       </c>
       <c r="B157" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C157" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D157" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E157">
         <v>13251</v>
@@ -7085,7 +7085,7 @@
         <v>15</v>
       </c>
       <c r="M157" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7093,13 +7093,13 @@
         <v>211111572</v>
       </c>
       <c r="B158" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D158" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E158">
         <v>13273</v>
@@ -7126,7 +7126,7 @@
         <v>15</v>
       </c>
       <c r="M158" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7134,13 +7134,13 @@
         <v>211111572</v>
       </c>
       <c r="B159" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D159" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E159">
         <v>13366</v>
@@ -7167,7 +7167,7 @@
         <v>15</v>
       </c>
       <c r="M159" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -7175,13 +7175,13 @@
         <v>211111572</v>
       </c>
       <c r="B160" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D160" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E160">
         <v>13375</v>
@@ -7208,7 +7208,7 @@
         <v>15</v>
       </c>
       <c r="M160" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -7216,7 +7216,7 @@
         <v>211111596</v>
       </c>
       <c r="B161" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C161" t="s">
         <v>13</v>
@@ -7249,7 +7249,7 @@
         <v>15</v>
       </c>
       <c r="M161" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -7257,13 +7257,13 @@
         <v>211111596</v>
       </c>
       <c r="B162" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D162" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E162">
         <v>11520</v>
@@ -7290,7 +7290,7 @@
         <v>15</v>
       </c>
       <c r="M162" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7298,13 +7298,13 @@
         <v>211111596</v>
       </c>
       <c r="B163" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D163" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E163">
         <v>11845</v>
@@ -7331,7 +7331,7 @@
         <v>15</v>
       </c>
       <c r="M163" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7339,13 +7339,13 @@
         <v>211111596</v>
       </c>
       <c r="B164" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D164" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E164">
         <v>12061</v>
@@ -7372,7 +7372,7 @@
         <v>15</v>
       </c>
       <c r="M164" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7380,13 +7380,13 @@
         <v>211111596</v>
       </c>
       <c r="B165" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D165" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E165">
         <v>12314</v>
@@ -7413,7 +7413,7 @@
         <v>15</v>
       </c>
       <c r="M165" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7421,13 +7421,13 @@
         <v>211111596</v>
       </c>
       <c r="B166" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C166" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D166" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E166">
         <v>12530</v>
@@ -7454,7 +7454,7 @@
         <v>15</v>
       </c>
       <c r="M166" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7462,13 +7462,13 @@
         <v>211111596</v>
       </c>
       <c r="B167" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C167" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D167" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E167">
         <v>12789</v>
@@ -7495,7 +7495,7 @@
         <v>15</v>
       </c>
       <c r="M167" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7503,13 +7503,13 @@
         <v>211111596</v>
       </c>
       <c r="B168" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C168" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D168" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E168">
         <v>13022</v>
@@ -7536,7 +7536,7 @@
         <v>15</v>
       </c>
       <c r="M168" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7544,13 +7544,13 @@
         <v>211111625</v>
       </c>
       <c r="B169" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C169" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D169" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E169">
         <v>12193</v>
@@ -7577,7 +7577,7 @@
         <v>15</v>
       </c>
       <c r="M169" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7585,13 +7585,13 @@
         <v>211111625</v>
       </c>
       <c r="B170" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C170" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D170" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E170">
         <v>12427</v>
@@ -7618,7 +7618,7 @@
         <v>15</v>
       </c>
       <c r="M170" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7626,13 +7626,13 @@
         <v>211111625</v>
       </c>
       <c r="B171" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C171" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D171" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E171">
         <v>12594</v>
@@ -7659,7 +7659,7 @@
         <v>15</v>
       </c>
       <c r="M171" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7667,13 +7667,13 @@
         <v>211111625</v>
       </c>
       <c r="B172" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C172" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D172" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E172">
         <v>13180</v>
@@ -7700,7 +7700,7 @@
         <v>15</v>
       </c>
       <c r="M172" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7708,13 +7708,13 @@
         <v>211111625</v>
       </c>
       <c r="B173" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D173" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E173">
         <v>13187</v>
@@ -7741,7 +7741,7 @@
         <v>15</v>
       </c>
       <c r="M173" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7749,13 +7749,13 @@
         <v>211111625</v>
       </c>
       <c r="B174" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C174" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D174" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E174">
         <v>13236</v>
@@ -7782,7 +7782,7 @@
         <v>15</v>
       </c>
       <c r="M174" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7790,13 +7790,13 @@
         <v>211111625</v>
       </c>
       <c r="B175" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D175" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E175">
         <v>13272</v>
@@ -7823,7 +7823,7 @@
         <v>15</v>
       </c>
       <c r="M175" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7831,13 +7831,13 @@
         <v>211111709</v>
       </c>
       <c r="B176" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C176" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D176" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E176">
         <v>13070</v>
@@ -7864,7 +7864,7 @@
         <v>15</v>
       </c>
       <c r="M176" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7872,13 +7872,13 @@
         <v>211111709</v>
       </c>
       <c r="B177" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D177" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E177">
         <v>13314</v>
@@ -7905,7 +7905,7 @@
         <v>15</v>
       </c>
       <c r="M177" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -7913,13 +7913,13 @@
         <v>211111737</v>
       </c>
       <c r="B178" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D178" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E178">
         <v>11579</v>
@@ -7946,7 +7946,7 @@
         <v>15</v>
       </c>
       <c r="M178" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -7954,13 +7954,13 @@
         <v>211111737</v>
       </c>
       <c r="B179" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C179" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D179" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E179">
         <v>13020</v>
@@ -7987,7 +7987,7 @@
         <v>15</v>
       </c>
       <c r="M179" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -7995,13 +7995,13 @@
         <v>211111737</v>
       </c>
       <c r="B180" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C180" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D180" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E180">
         <v>13065</v>
@@ -8028,7 +8028,7 @@
         <v>15</v>
       </c>
       <c r="M180" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8036,13 +8036,13 @@
         <v>211111737</v>
       </c>
       <c r="B181" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C181" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D181" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E181">
         <v>13193</v>
@@ -8069,7 +8069,7 @@
         <v>15</v>
       </c>
       <c r="M181" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8077,13 +8077,13 @@
         <v>211111737</v>
       </c>
       <c r="B182" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C182" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D182" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E182">
         <v>13313</v>
@@ -8110,7 +8110,7 @@
         <v>15</v>
       </c>
       <c r="M182" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -8118,13 +8118,13 @@
         <v>211111737</v>
       </c>
       <c r="B183" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C183" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D183" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E183">
         <v>13407</v>
@@ -8151,7 +8151,7 @@
         <v>15</v>
       </c>
       <c r="M183" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -8159,13 +8159,13 @@
         <v>211111839</v>
       </c>
       <c r="B184" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C184" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D184" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E184">
         <v>12296</v>
@@ -8192,7 +8192,7 @@
         <v>15</v>
       </c>
       <c r="M184" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -8200,7 +8200,7 @@
         <v>211111839</v>
       </c>
       <c r="B185" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C185" t="s">
         <v>13</v>
@@ -8233,7 +8233,7 @@
         <v>15</v>
       </c>
       <c r="M185" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -8241,13 +8241,13 @@
         <v>211111839</v>
       </c>
       <c r="B186" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C186" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D186" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E186">
         <v>12534</v>
@@ -8274,7 +8274,7 @@
         <v>15</v>
       </c>
       <c r="M186" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -8282,13 +8282,13 @@
         <v>211111839</v>
       </c>
       <c r="B187" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C187" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D187" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E187">
         <v>13408</v>
@@ -8315,7 +8315,7 @@
         <v>15</v>
       </c>
       <c r="M187" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -8323,13 +8323,13 @@
         <v>211111841</v>
       </c>
       <c r="B188" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C188" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D188" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E188">
         <v>12681</v>
@@ -8356,7 +8356,7 @@
         <v>15</v>
       </c>
       <c r="M188" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8364,13 +8364,13 @@
         <v>211111841</v>
       </c>
       <c r="B189" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C189" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D189" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E189">
         <v>12792</v>
@@ -8397,7 +8397,7 @@
         <v>15</v>
       </c>
       <c r="M189" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8405,13 +8405,13 @@
         <v>211111841</v>
       </c>
       <c r="B190" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C190" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D190" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E190">
         <v>12926</v>
@@ -8438,7 +8438,7 @@
         <v>15</v>
       </c>
       <c r="M190" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8446,13 +8446,13 @@
         <v>211111841</v>
       </c>
       <c r="B191" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C191" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D191" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E191">
         <v>13178</v>
@@ -8479,7 +8479,7 @@
         <v>15</v>
       </c>
       <c r="M191" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -8487,13 +8487,13 @@
         <v>211111841</v>
       </c>
       <c r="B192" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C192" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D192" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E192">
         <v>13189</v>
@@ -8520,7 +8520,7 @@
         <v>15</v>
       </c>
       <c r="M192" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -8528,13 +8528,13 @@
         <v>211111841</v>
       </c>
       <c r="B193" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C193" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D193" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E193">
         <v>13210</v>
@@ -8561,7 +8561,7 @@
         <v>15</v>
       </c>
       <c r="M193" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -8569,13 +8569,13 @@
         <v>211111841</v>
       </c>
       <c r="B194" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C194" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D194" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E194">
         <v>13417</v>
@@ -8602,7 +8602,7 @@
         <v>15</v>
       </c>
       <c r="M194" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -8610,7 +8610,7 @@
         <v>211111849</v>
       </c>
       <c r="B195" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C195" t="s">
         <v>13</v>
@@ -8643,7 +8643,7 @@
         <v>15</v>
       </c>
       <c r="M195" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -8651,13 +8651,13 @@
         <v>211111849</v>
       </c>
       <c r="B196" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D196" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E196">
         <v>12676</v>
@@ -8684,7 +8684,7 @@
         <v>15</v>
       </c>
       <c r="M196" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -8692,13 +8692,13 @@
         <v>211111849</v>
       </c>
       <c r="B197" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C197" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D197" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E197">
         <v>12922</v>
@@ -8725,7 +8725,7 @@
         <v>15</v>
       </c>
       <c r="M197" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -8733,13 +8733,13 @@
         <v>211111849</v>
       </c>
       <c r="B198" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D198" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E198">
         <v>13253</v>
@@ -8766,7 +8766,7 @@
         <v>15</v>
       </c>
       <c r="M198" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -8774,19 +8774,19 @@
         <v>211111951</v>
       </c>
       <c r="B199" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C199" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D199" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E199">
         <v>11550</v>
       </c>
       <c r="F199" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G199" s="1">
         <v>45905.644629629627</v>
@@ -8807,7 +8807,7 @@
         <v>15</v>
       </c>
       <c r="M199" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -8815,19 +8815,19 @@
         <v>211111951</v>
       </c>
       <c r="B200" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C200" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D200" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E200">
         <v>12080</v>
       </c>
       <c r="F200" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G200" s="1">
         <v>45919.578356481477</v>
@@ -8848,7 +8848,7 @@
         <v>15</v>
       </c>
       <c r="M200" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -8856,19 +8856,19 @@
         <v>211111951</v>
       </c>
       <c r="B201" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C201" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D201" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E201">
         <v>12344</v>
       </c>
       <c r="F201" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G201" s="1">
         <v>45926.479884259257</v>
@@ -8889,7 +8889,7 @@
         <v>15</v>
       </c>
       <c r="M201" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -8897,13 +8897,13 @@
         <v>211111951</v>
       </c>
       <c r="B202" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C202" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D202" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E202">
         <v>13049</v>
@@ -8930,7 +8930,7 @@
         <v>15</v>
       </c>
       <c r="M202" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -8938,13 +8938,13 @@
         <v>211111951</v>
       </c>
       <c r="B203" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C203" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D203" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E203">
         <v>13093</v>
@@ -8971,7 +8971,7 @@
         <v>15</v>
       </c>
       <c r="M203" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -8979,13 +8979,13 @@
         <v>211111983</v>
       </c>
       <c r="B204" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C204" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D204" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E204">
         <v>12628</v>
@@ -9012,7 +9012,7 @@
         <v>15</v>
       </c>
       <c r="M204" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -9020,13 +9020,13 @@
         <v>211111972</v>
       </c>
       <c r="B205" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C205" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D205" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E205">
         <v>11495</v>
@@ -9053,7 +9053,7 @@
         <v>15</v>
       </c>
       <c r="M205" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -9061,13 +9061,13 @@
         <v>211111972</v>
       </c>
       <c r="B206" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C206" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D206" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E206">
         <v>12073</v>
@@ -9094,7 +9094,7 @@
         <v>15</v>
       </c>
       <c r="M206" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -9102,13 +9102,13 @@
         <v>211111972</v>
       </c>
       <c r="B207" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C207" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D207" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E207">
         <v>13295</v>
@@ -9135,7 +9135,7 @@
         <v>15</v>
       </c>
       <c r="M207" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -9143,13 +9143,13 @@
         <v>211112008</v>
       </c>
       <c r="B208" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C208" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D208" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E208">
         <v>12557</v>
@@ -9176,7 +9176,7 @@
         <v>15</v>
       </c>
       <c r="M208" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
@@ -9184,13 +9184,13 @@
         <v>211112008</v>
       </c>
       <c r="B209" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C209" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D209" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E209">
         <v>12629</v>
@@ -9217,7 +9217,7 @@
         <v>15</v>
       </c>
       <c r="M209" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -9225,13 +9225,13 @@
         <v>211112008</v>
       </c>
       <c r="B210" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C210" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D210" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E210">
         <v>12778</v>
@@ -9258,7 +9258,7 @@
         <v>15</v>
       </c>
       <c r="M210" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -9266,13 +9266,13 @@
         <v>211112008</v>
       </c>
       <c r="B211" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C211" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D211" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E211">
         <v>12894</v>
@@ -9299,7 +9299,7 @@
         <v>15</v>
       </c>
       <c r="M211" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
@@ -9307,13 +9307,13 @@
         <v>211112008</v>
       </c>
       <c r="B212" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C212" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D212" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E212">
         <v>13048</v>
@@ -9340,7 +9340,7 @@
         <v>15</v>
       </c>
       <c r="M212" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
@@ -9348,13 +9348,13 @@
         <v>211112008</v>
       </c>
       <c r="B213" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C213" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D213" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E213">
         <v>13186</v>
@@ -9381,7 +9381,7 @@
         <v>15</v>
       </c>
       <c r="M213" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
@@ -9389,13 +9389,13 @@
         <v>211112008</v>
       </c>
       <c r="B214" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C214" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D214" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E214">
         <v>13294</v>
@@ -9422,7 +9422,7 @@
         <v>15</v>
       </c>
       <c r="M214" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9430,13 +9430,13 @@
         <v>211112008</v>
       </c>
       <c r="B215" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C215" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D215" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E215">
         <v>13409</v>
@@ -9463,7 +9463,7 @@
         <v>15</v>
       </c>
       <c r="M215" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9471,13 +9471,13 @@
         <v>211112010</v>
       </c>
       <c r="B216" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C216" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D216" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E216">
         <v>13299</v>
@@ -9504,7 +9504,7 @@
         <v>15</v>
       </c>
       <c r="M216" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9512,13 +9512,13 @@
         <v>211112073</v>
       </c>
       <c r="B217" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C217" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D217" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E217">
         <v>6515</v>
@@ -9545,7 +9545,7 @@
         <v>15</v>
       </c>
       <c r="M217" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9553,13 +9553,13 @@
         <v>211112073</v>
       </c>
       <c r="B218" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C218" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D218" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E218">
         <v>7579</v>
@@ -9586,7 +9586,7 @@
         <v>15</v>
       </c>
       <c r="M218" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -9594,7 +9594,7 @@
         <v>211112073</v>
       </c>
       <c r="B219" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C219" t="s">
         <v>13</v>
@@ -9627,7 +9627,7 @@
         <v>15</v>
       </c>
       <c r="M219" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -9635,7 +9635,7 @@
         <v>211112073</v>
       </c>
       <c r="B220" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C220" t="s">
         <v>13</v>
@@ -9668,7 +9668,7 @@
         <v>15</v>
       </c>
       <c r="M220" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -9676,13 +9676,13 @@
         <v>211112073</v>
       </c>
       <c r="B221" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C221" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D221" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E221">
         <v>8987</v>
@@ -9709,7 +9709,7 @@
         <v>15</v>
       </c>
       <c r="M221" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -9717,13 +9717,13 @@
         <v>211112073</v>
       </c>
       <c r="B222" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C222" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D222" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E222">
         <v>9085</v>
@@ -9750,7 +9750,7 @@
         <v>15</v>
       </c>
       <c r="M222" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -9758,13 +9758,13 @@
         <v>211112073</v>
       </c>
       <c r="B223" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C223" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D223" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E223">
         <v>10126</v>
@@ -9791,7 +9791,7 @@
         <v>15</v>
       </c>
       <c r="M223" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -9799,7 +9799,7 @@
         <v>211112073</v>
       </c>
       <c r="B224" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C224" t="s">
         <v>13</v>
@@ -9832,7 +9832,7 @@
         <v>15</v>
       </c>
       <c r="M224" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -9840,13 +9840,13 @@
         <v>211112073</v>
       </c>
       <c r="B225" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C225" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D225" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E225">
         <v>10216</v>
@@ -9873,7 +9873,7 @@
         <v>15</v>
       </c>
       <c r="M225" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -9881,13 +9881,13 @@
         <v>211112073</v>
       </c>
       <c r="B226" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C226" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D226" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E226">
         <v>10623</v>
@@ -9914,7 +9914,7 @@
         <v>15</v>
       </c>
       <c r="M226" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -9922,13 +9922,13 @@
         <v>211112073</v>
       </c>
       <c r="B227" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C227" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D227" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E227">
         <v>10908</v>
@@ -9955,7 +9955,7 @@
         <v>15</v>
       </c>
       <c r="M227" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -9963,13 +9963,13 @@
         <v>211112073</v>
       </c>
       <c r="B228" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C228" t="s">
         <v>13</v>
       </c>
       <c r="D228" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E228">
         <v>531</v>
@@ -9996,7 +9996,7 @@
         <v>15</v>
       </c>
       <c r="M228" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -10004,13 +10004,13 @@
         <v>211112073</v>
       </c>
       <c r="B229" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C229" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D229" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E229">
         <v>11658</v>
@@ -10037,7 +10037,7 @@
         <v>15</v>
       </c>
       <c r="M229" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -10045,13 +10045,13 @@
         <v>211112073</v>
       </c>
       <c r="B230" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C230" t="s">
         <v>13</v>
       </c>
       <c r="D230" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E230">
         <v>545</v>
@@ -10078,7 +10078,7 @@
         <v>15</v>
       </c>
       <c r="M230" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -10086,13 +10086,13 @@
         <v>211112074</v>
       </c>
       <c r="B231" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C231" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D231" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E231">
         <v>12680</v>
@@ -10119,7 +10119,7 @@
         <v>15</v>
       </c>
       <c r="M231" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -10127,13 +10127,13 @@
         <v>211112074</v>
       </c>
       <c r="B232" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C232" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D232" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E232">
         <v>12925</v>
@@ -10160,7 +10160,7 @@
         <v>15</v>
       </c>
       <c r="M232" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -10168,13 +10168,13 @@
         <v>211112074</v>
       </c>
       <c r="B233" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C233" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D233" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E233">
         <v>12941</v>
@@ -10201,7 +10201,7 @@
         <v>15</v>
       </c>
       <c r="M233" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -10209,13 +10209,13 @@
         <v>211112074</v>
       </c>
       <c r="B234" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C234" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D234" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E234">
         <v>13037</v>
@@ -10242,7 +10242,7 @@
         <v>15</v>
       </c>
       <c r="M234" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -10250,13 +10250,13 @@
         <v>211112074</v>
       </c>
       <c r="B235" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C235" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D235" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E235">
         <v>13071</v>
@@ -10283,7 +10283,7 @@
         <v>15</v>
       </c>
       <c r="M235" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -10291,13 +10291,13 @@
         <v>211112074</v>
       </c>
       <c r="B236" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C236" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D236" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E236">
         <v>13215</v>
@@ -10324,7 +10324,7 @@
         <v>15</v>
       </c>
       <c r="M236" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -10332,13 +10332,13 @@
         <v>211112074</v>
       </c>
       <c r="B237" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C237" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D237" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E237">
         <v>13312</v>
@@ -10365,7 +10365,7 @@
         <v>15</v>
       </c>
       <c r="M237" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
@@ -10373,13 +10373,13 @@
         <v>211112074</v>
       </c>
       <c r="B238" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C238" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D238" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E238">
         <v>13416</v>
@@ -10406,7 +10406,7 @@
         <v>15</v>
       </c>
       <c r="M238" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
@@ -10414,13 +10414,13 @@
         <v>211111312</v>
       </c>
       <c r="B239" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C239" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D239" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E239">
         <v>12905</v>
@@ -10447,7 +10447,7 @@
         <v>15</v>
       </c>
       <c r="M239" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
@@ -10455,13 +10455,13 @@
         <v>211111312</v>
       </c>
       <c r="B240" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C240" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D240" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E240">
         <v>13017</v>
@@ -10488,7 +10488,7 @@
         <v>15</v>
       </c>
       <c r="M240" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -10496,13 +10496,13 @@
         <v>211112119</v>
       </c>
       <c r="B241" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C241" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D241" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E241">
         <v>12486</v>
@@ -10529,7 +10529,7 @@
         <v>15</v>
       </c>
       <c r="M241" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -10537,13 +10537,13 @@
         <v>211112119</v>
       </c>
       <c r="B242" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C242" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D242" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E242">
         <v>12529</v>
@@ -10570,7 +10570,7 @@
         <v>15</v>
       </c>
       <c r="M242" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -10578,13 +10578,13 @@
         <v>211112119</v>
       </c>
       <c r="B243" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C243" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D243" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E243">
         <v>12757</v>
@@ -10611,7 +10611,7 @@
         <v>15</v>
       </c>
       <c r="M243" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -10619,13 +10619,13 @@
         <v>211112119</v>
       </c>
       <c r="B244" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C244" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D244" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E244">
         <v>13173</v>
@@ -10652,7 +10652,7 @@
         <v>15</v>
       </c>
       <c r="M244" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -10660,7 +10660,7 @@
         <v>211112119</v>
       </c>
       <c r="B245" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C245" t="s">
         <v>13</v>
@@ -10693,7 +10693,7 @@
         <v>15</v>
       </c>
       <c r="M245" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -10701,13 +10701,13 @@
         <v>211112121</v>
       </c>
       <c r="B246" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C246" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D246" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E246">
         <v>13107</v>
@@ -10734,7 +10734,7 @@
         <v>15</v>
       </c>
       <c r="M246" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -10742,13 +10742,13 @@
         <v>211112123</v>
       </c>
       <c r="B247" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C247" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D247" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E247">
         <v>13216</v>
@@ -10775,7 +10775,7 @@
         <v>15</v>
       </c>
       <c r="M247" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -10783,13 +10783,13 @@
         <v>211112125</v>
       </c>
       <c r="B248" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C248" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D248" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E248">
         <v>12649</v>
@@ -10816,7 +10816,7 @@
         <v>15</v>
       </c>
       <c r="M248" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -10824,13 +10824,13 @@
         <v>211112125</v>
       </c>
       <c r="B249" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C249" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D249" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E249">
         <v>12874</v>
@@ -10857,7 +10857,7 @@
         <v>15</v>
       </c>
       <c r="M249" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -10865,13 +10865,13 @@
         <v>211112125</v>
       </c>
       <c r="B250" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C250" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D250" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E250">
         <v>13413</v>
@@ -10898,7 +10898,7 @@
         <v>15</v>
       </c>
       <c r="M250" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -10906,13 +10906,13 @@
         <v>211112178</v>
       </c>
       <c r="B251" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C251" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D251" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E251">
         <v>13421</v>
@@ -10939,7 +10939,7 @@
         <v>15</v>
       </c>
       <c r="M251" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -10947,13 +10947,13 @@
         <v>211112191</v>
       </c>
       <c r="B252" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C252" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D252" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E252">
         <v>12596</v>
@@ -10980,7 +10980,7 @@
         <v>15</v>
       </c>
       <c r="M252" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -10988,13 +10988,13 @@
         <v>211112191</v>
       </c>
       <c r="B253" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C253" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D253" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E253">
         <v>12719</v>
@@ -11021,7 +11021,7 @@
         <v>15</v>
       </c>
       <c r="M253" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
@@ -11029,13 +11029,13 @@
         <v>211112191</v>
       </c>
       <c r="B254" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C254" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D254" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E254">
         <v>13104</v>
@@ -11062,7 +11062,7 @@
         <v>15</v>
       </c>
       <c r="M254" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
@@ -11070,13 +11070,13 @@
         <v>211112191</v>
       </c>
       <c r="B255" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C255" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D255" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E255">
         <v>13116</v>
@@ -11103,7 +11103,7 @@
         <v>15</v>
       </c>
       <c r="M255" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
@@ -11111,13 +11111,13 @@
         <v>211112280</v>
       </c>
       <c r="B256" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C256" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D256" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E256">
         <v>3376</v>
@@ -11144,7 +11144,7 @@
         <v>15</v>
       </c>
       <c r="M256" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -11152,13 +11152,13 @@
         <v>211112280</v>
       </c>
       <c r="B257" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C257" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D257" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E257">
         <v>3563</v>
@@ -11185,7 +11185,7 @@
         <v>15</v>
       </c>
       <c r="M257" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
@@ -11193,13 +11193,13 @@
         <v>211112280</v>
       </c>
       <c r="B258" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C258" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D258" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E258">
         <v>3774</v>
@@ -11226,7 +11226,7 @@
         <v>15</v>
       </c>
       <c r="M258" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
@@ -11234,13 +11234,13 @@
         <v>211112280</v>
       </c>
       <c r="B259" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C259" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D259" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E259">
         <v>8710</v>
@@ -11267,7 +11267,7 @@
         <v>15</v>
       </c>
       <c r="M259" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -11275,10 +11275,10 @@
         <v>211112280</v>
       </c>
       <c r="B260" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C260" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D260">
         <v>2025</v>
@@ -11308,7 +11308,7 @@
         <v>15</v>
       </c>
       <c r="M260" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
@@ -11316,13 +11316,13 @@
         <v>211112280</v>
       </c>
       <c r="B261" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C261" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D261" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E261">
         <v>8977</v>
@@ -11349,7 +11349,7 @@
         <v>15</v>
       </c>
       <c r="M261" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
@@ -11357,13 +11357,13 @@
         <v>211112280</v>
       </c>
       <c r="B262" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C262" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D262" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E262">
         <v>9072</v>
@@ -11390,7 +11390,7 @@
         <v>15</v>
       </c>
       <c r="M262" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -11398,13 +11398,13 @@
         <v>211112280</v>
       </c>
       <c r="B263" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C263" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D263" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E263">
         <v>9191</v>
@@ -11431,7 +11431,7 @@
         <v>15</v>
       </c>
       <c r="M263" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
@@ -11439,13 +11439,13 @@
         <v>211112280</v>
       </c>
       <c r="B264" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C264" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D264" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E264">
         <v>9532</v>
@@ -11472,7 +11472,7 @@
         <v>15</v>
       </c>
       <c r="M264" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
@@ -11480,13 +11480,13 @@
         <v>211112280</v>
       </c>
       <c r="B265" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C265" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D265" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E265">
         <v>9551</v>
@@ -11513,7 +11513,7 @@
         <v>15</v>
       </c>
       <c r="M265" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
@@ -11521,13 +11521,13 @@
         <v>211112280</v>
       </c>
       <c r="B266" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C266" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D266" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E266">
         <v>9684</v>
@@ -11554,7 +11554,7 @@
         <v>15</v>
       </c>
       <c r="M266" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -11562,13 +11562,13 @@
         <v>211112280</v>
       </c>
       <c r="B267" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C267" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D267" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E267">
         <v>9815</v>
@@ -11595,7 +11595,7 @@
         <v>15</v>
       </c>
       <c r="M267" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -11603,13 +11603,13 @@
         <v>211112280</v>
       </c>
       <c r="B268" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C268" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D268" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E268">
         <v>9980</v>
@@ -11636,7 +11636,7 @@
         <v>15</v>
       </c>
       <c r="M268" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -11644,13 +11644,13 @@
         <v>211112280</v>
       </c>
       <c r="B269" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C269" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D269" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E269">
         <v>10044</v>
@@ -11677,7 +11677,7 @@
         <v>15</v>
       </c>
       <c r="M269" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
@@ -11685,13 +11685,13 @@
         <v>211112280</v>
       </c>
       <c r="B270" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C270" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D270" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E270">
         <v>10051</v>
@@ -11718,7 +11718,7 @@
         <v>15</v>
       </c>
       <c r="M270" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
@@ -11726,13 +11726,13 @@
         <v>211112280</v>
       </c>
       <c r="B271" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C271" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D271" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E271">
         <v>10107</v>
@@ -11759,7 +11759,7 @@
         <v>15</v>
       </c>
       <c r="M271" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
@@ -11767,13 +11767,13 @@
         <v>211112280</v>
       </c>
       <c r="B272" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C272" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D272" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E272">
         <v>10219</v>
@@ -11800,7 +11800,7 @@
         <v>15</v>
       </c>
       <c r="M272" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
@@ -11808,13 +11808,13 @@
         <v>211112280</v>
       </c>
       <c r="B273" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C273" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D273" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E273">
         <v>10319</v>
@@ -11841,7 +11841,7 @@
         <v>15</v>
       </c>
       <c r="M273" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
@@ -11849,13 +11849,13 @@
         <v>211112280</v>
       </c>
       <c r="B274" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C274" t="s">
         <v>13</v>
       </c>
       <c r="D274" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E274">
         <v>520</v>
@@ -11882,7 +11882,7 @@
         <v>15</v>
       </c>
       <c r="M274" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -11890,13 +11890,13 @@
         <v>211112280</v>
       </c>
       <c r="B275" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C275" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D275" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E275">
         <v>10439</v>
@@ -11923,7 +11923,7 @@
         <v>15</v>
       </c>
       <c r="M275" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
@@ -11931,13 +11931,13 @@
         <v>211112280</v>
       </c>
       <c r="B276" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C276" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D276" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E276">
         <v>10615</v>
@@ -11964,7 +11964,7 @@
         <v>15</v>
       </c>
       <c r="M276" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
@@ -11972,13 +11972,13 @@
         <v>211112280</v>
       </c>
       <c r="B277" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C277" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D277" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E277">
         <v>10732</v>
@@ -12005,7 +12005,7 @@
         <v>15</v>
       </c>
       <c r="M277" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
@@ -12013,7 +12013,7 @@
         <v>211112280</v>
       </c>
       <c r="B278" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C278" t="s">
         <v>13</v>
@@ -12046,7 +12046,7 @@
         <v>15</v>
       </c>
       <c r="M278" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -12054,13 +12054,13 @@
         <v>211112280</v>
       </c>
       <c r="B279" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C279" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D279" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E279">
         <v>10909</v>
@@ -12087,7 +12087,7 @@
         <v>15</v>
       </c>
       <c r="M279" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -12095,13 +12095,13 @@
         <v>211112280</v>
       </c>
       <c r="B280" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C280" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D280" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E280">
         <v>11037</v>
@@ -12128,7 +12128,7 @@
         <v>15</v>
       </c>
       <c r="M280" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -12136,13 +12136,13 @@
         <v>211112280</v>
       </c>
       <c r="B281" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C281" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D281" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E281">
         <v>11202</v>
@@ -12169,7 +12169,7 @@
         <v>15</v>
       </c>
       <c r="M281" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -12177,13 +12177,13 @@
         <v>211112280</v>
       </c>
       <c r="B282" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C282" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D282" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E282">
         <v>12060</v>
@@ -12210,7 +12210,7 @@
         <v>15</v>
       </c>
       <c r="M282" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -12218,13 +12218,13 @@
         <v>211112280</v>
       </c>
       <c r="B283" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C283" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D283" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E283">
         <v>12151</v>
@@ -12251,7 +12251,7 @@
         <v>15</v>
       </c>
       <c r="M283" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -12259,13 +12259,13 @@
         <v>211112297</v>
       </c>
       <c r="B284" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C284" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D284" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E284">
         <v>176</v>
@@ -12292,7 +12292,7 @@
         <v>15</v>
       </c>
       <c r="M284" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
@@ -12300,13 +12300,13 @@
         <v>211112298</v>
       </c>
       <c r="B285" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C285" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D285" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E285">
         <v>10194</v>
@@ -12333,7 +12333,7 @@
         <v>15</v>
       </c>
       <c r="M285" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -12341,13 +12341,13 @@
         <v>211112298</v>
       </c>
       <c r="B286" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C286" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D286" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E286">
         <v>10662</v>
@@ -12374,7 +12374,7 @@
         <v>15</v>
       </c>
       <c r="M286" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
@@ -12382,13 +12382,13 @@
         <v>211112298</v>
       </c>
       <c r="B287" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C287" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D287" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E287">
         <v>11952</v>
@@ -12415,7 +12415,7 @@
         <v>15</v>
       </c>
       <c r="M287" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
@@ -12423,13 +12423,13 @@
         <v>211112298</v>
       </c>
       <c r="B288" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C288" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D288" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E288">
         <v>12464</v>
@@ -12456,7 +12456,7 @@
         <v>15</v>
       </c>
       <c r="M288" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
@@ -12464,13 +12464,13 @@
         <v>211112298</v>
       </c>
       <c r="B289" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C289" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D289" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E289">
         <v>12683</v>
@@ -12497,7 +12497,7 @@
         <v>15</v>
       </c>
       <c r="M289" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
@@ -12505,13 +12505,13 @@
         <v>211112298</v>
       </c>
       <c r="B290" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C290" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D290" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E290">
         <v>12928</v>
@@ -12538,7 +12538,7 @@
         <v>15</v>
       </c>
       <c r="M290" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
@@ -12546,13 +12546,13 @@
         <v>211112298</v>
       </c>
       <c r="B291" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C291" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D291" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E291">
         <v>13043</v>
@@ -12579,7 +12579,7 @@
         <v>15</v>
       </c>
       <c r="M291" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
@@ -12587,13 +12587,13 @@
         <v>211112298</v>
       </c>
       <c r="B292" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C292" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D292" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E292">
         <v>13125</v>
@@ -12620,7 +12620,7 @@
         <v>15</v>
       </c>
       <c r="M292" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -12628,13 +12628,13 @@
         <v>211112358</v>
       </c>
       <c r="B293" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C293" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D293" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E293">
         <v>8801</v>
@@ -12661,7 +12661,7 @@
         <v>15</v>
       </c>
       <c r="M293" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -12669,13 +12669,13 @@
         <v>211112358</v>
       </c>
       <c r="B294" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C294" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D294" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E294">
         <v>8808</v>
@@ -12702,7 +12702,7 @@
         <v>15</v>
       </c>
       <c r="M294" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -12710,13 +12710,13 @@
         <v>211112358</v>
       </c>
       <c r="B295" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C295" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D295" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E295">
         <v>1347</v>
@@ -12743,7 +12743,7 @@
         <v>15</v>
       </c>
       <c r="M295" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -12751,13 +12751,13 @@
         <v>211112390</v>
       </c>
       <c r="B296" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C296" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D296" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E296">
         <v>12903</v>
@@ -12784,7 +12784,7 @@
         <v>15</v>
       </c>
       <c r="M296" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
@@ -12792,7 +12792,7 @@
         <v>211112358</v>
       </c>
       <c r="B297" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C297" t="s">
         <v>13</v>
@@ -12825,7 +12825,7 @@
         <v>15</v>
       </c>
       <c r="M297" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -12833,13 +12833,13 @@
         <v>211111312</v>
       </c>
       <c r="B298" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C298" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D298" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E298">
         <v>13061</v>
@@ -12866,7 +12866,7 @@
         <v>15</v>
       </c>
       <c r="M298" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -12874,16 +12874,16 @@
         <v>211131162</v>
       </c>
       <c r="B299" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C299" t="s">
+        <v>45</v>
+      </c>
+      <c r="D299" t="s">
         <v>46</v>
       </c>
-      <c r="D299" t="s">
+      <c r="E299" t="s">
         <v>47</v>
-      </c>
-      <c r="E299" t="s">
-        <v>55</v>
       </c>
       <c r="F299" t="s">
         <v>14</v>
@@ -12907,7 +12907,7 @@
         <v>15</v>
       </c>
       <c r="M299" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -12915,13 +12915,13 @@
         <v>211131162</v>
       </c>
       <c r="B300" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C300" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D300" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E300">
         <v>13151</v>
@@ -12948,7 +12948,7 @@
         <v>15</v>
       </c>
       <c r="M300" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
